--- a/biology/Mycologie/Butyriboletus/Butyriboletus.xlsx
+++ b/biology/Mycologie/Butyriboletus/Butyriboletus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Butyriboletus est un genre de champignons de la famille des Boletaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (18 novembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (18 novembre 2023) :
 Butyriboletus abieticola (Thiers) D. Arora &amp; J. L. Frank, 2014
 Butyriboletus appendiculatus (Schaeffer) D. Arora &amp; J. L. Frank, 2014
 Butyriboletus autumniregius D. Arora and J. L. Frank, 2014
@@ -572,7 +586,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) David Arora et Jonathan L Frank, « Clarifying the butter Boletes: a new genus, Butyriboletus, is established to accommodate Boletus sect. Appendiculati, and six new species are described », Mycologia, Mycological Society of America (d), NYBG et Taylor &amp; Francis, vol. 106, no 3,‎ 28 mai 2014, p. 464-480 (ISSN 0027-5514 et 1557-2536, OCLC 1640733, PMID 24871600, DOI 10.3852/13-052)</t>
         </is>
